--- a/supervised-learning/regression/logistic-regression/Logistic Regression Scores Titanic.xlsx
+++ b/supervised-learning/regression/logistic-regression/Logistic Regression Scores Titanic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lynst\Documents\GitHub\machine-learning-projects\supervised-learning\regression\logistic-regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0567DA92-1D77-465D-86D8-9309FB9964EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E68EFA-C42A-4CC7-9E19-E8F3C4385C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{08962524-E75B-4A38-959C-A755DCA9F1EC}"/>
   </bookViews>
@@ -499,13 +499,13 @@
   <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -679,8 +679,23 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="1">
+        <v>0.76068376068375998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.77450980392156799</v>
+      </c>
       <c r="D3" s="1">
         <v>0.76878612716762995</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
       </c>
       <c r="U3" s="1">
         <v>0.91503267973856195</v>
@@ -690,8 +705,23 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
+      <c r="B4" s="1">
+        <v>0.66917293233082698</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.67521367521367504</v>
+      </c>
       <c r="D4" s="1">
         <v>0.66500000000000004</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.95488721804511201</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.95726495726495697</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.95499999999999996</v>
       </c>
       <c r="U4" s="1">
         <v>0.59829059829059805</v>
@@ -701,8 +731,23 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5" s="1">
+        <v>0.77166511785080605</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.77832848709137303</v>
+      </c>
       <c r="D5" s="1">
         <v>0.77243993993993998</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.977443609022556</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.97863247863247804</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.97750000000000004</v>
       </c>
       <c r="U5" s="1">
         <v>0.78239272182571096</v>
@@ -712,8 +757,23 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6" s="1">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.72146118721461105</v>
+      </c>
       <c r="D6" s="1">
         <v>0.71313672922252003</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.97692307692307601</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.97816593886462799</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.97698209718670004</v>
       </c>
       <c r="U6" s="1">
         <v>0.72351421188630405</v>
@@ -734,21 +794,57 @@
       <c r="A8" t="s">
         <v>1</v>
       </c>
+      <c r="E8" s="1">
+        <v>0.94354838709677402</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.95370370370370305</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.95555555555555505</v>
+      </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
+      <c r="E9" s="1">
+        <v>0.43984962406014999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.44017094017093999</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
+      <c r="E10" s="1">
+        <v>0.71205964349074902</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.71364217111639705</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.70899399399399399</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
+      <c r="E11" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.60233918128654895</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.59310344827586203</v>
+      </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="T12" s="2" t="s">
@@ -765,20 +861,56 @@
       <c r="A13" t="s">
         <v>1</v>
       </c>
+      <c r="E13" s="1">
+        <v>0.94029850746268595</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.94871794871794801</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.95833333333333304</v>
+      </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
+      <c r="E14" s="1">
+        <v>0.47368421052631499</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.47435897435897401</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
+      <c r="E15" s="1">
+        <v>0.72785334121821399</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.72944752841659999</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.723993993993994</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.63247863247863201</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.62162162162162105</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -810,7 +942,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{580ED29A-735A-449A-93CF-199A9171DED9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BC4495C-FFD3-4F90-A0CE-AF3DF983D774}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/PowerBIAddIn"/>
   </ds:schemaRefs>

--- a/supervised-learning/regression/logistic-regression/Logistic Regression Scores Titanic.xlsx
+++ b/supervised-learning/regression/logistic-regression/Logistic Regression Scores Titanic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lynst\Documents\GitHub\machine-learning-projects\supervised-learning\regression\logistic-regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E68EFA-C42A-4CC7-9E19-E8F3C4385C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272394E3-4C02-410F-8319-E5C0628DE52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{08962524-E75B-4A38-959C-A755DCA9F1EC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="15">
   <si>
     <t>recall</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>rfc</t>
+  </si>
+  <si>
+    <t>cv</t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
   <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,6 +783,9 @@
       </c>
     </row>
     <row r="7" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="T7" s="2" t="s">
         <v>10</v>
       </c>
@@ -846,7 +852,10 @@
         <v>0.59310344827586203</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="T12" s="2" t="s">
         <v>11</v>
       </c>
@@ -911,6 +920,11 @@
       </c>
       <c r="G16" s="1">
         <v>0.62162162162162105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
